--- a/Data/mappings/ei39/ei_iw_mapping.xlsx
+++ b/Data/mappings/ei39/ei_iw_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\ei39\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings_2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C20A75E-E42E-4DD0-84CE-931A79259931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFE0EC-972C-4298-B675-5042ED585280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="-108" windowWidth="6012" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5486,9 +5486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5526,9 +5526,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5561,26 +5561,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5613,26 +5596,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5808,7 +5774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1247" workbookViewId="0">
+      <selection activeCell="A1261" sqref="A1261"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14150,7 +14118,7 @@
         <v>1114</v>
       </c>
       <c r="B807" t="s">
-        <v>1576</v>
+        <v>1139</v>
       </c>
       <c r="C807" t="s">
         <v>1582</v>
@@ -14161,7 +14129,7 @@
         <v>1115</v>
       </c>
       <c r="B808" t="s">
-        <v>1576</v>
+        <v>1139</v>
       </c>
       <c r="C808" t="s">
         <v>1582</v>
@@ -14304,7 +14272,7 @@
         <v>1128</v>
       </c>
       <c r="B821" t="s">
-        <v>1576</v>
+        <v>1139</v>
       </c>
       <c r="C821" t="s">
         <v>1582</v>
@@ -14425,7 +14393,7 @@
         <v>1139</v>
       </c>
       <c r="B832" t="s">
-        <v>1578</v>
+        <v>1139</v>
       </c>
       <c r="C832" t="s">
         <v>1582</v>
@@ -17912,7 +17880,7 @@
         <v>1328</v>
       </c>
       <c r="B1173" t="s">
-        <v>1585</v>
+        <v>1353</v>
       </c>
       <c r="C1173" t="s">
         <v>1582</v>
@@ -17923,7 +17891,7 @@
         <v>1329</v>
       </c>
       <c r="B1174" t="s">
-        <v>1585</v>
+        <v>1353</v>
       </c>
       <c r="C1174" t="s">
         <v>1582</v>
@@ -18066,7 +18034,7 @@
         <v>1342</v>
       </c>
       <c r="B1187" t="s">
-        <v>1585</v>
+        <v>1353</v>
       </c>
       <c r="C1187" t="s">
         <v>1582</v>
@@ -18187,7 +18155,7 @@
         <v>1353</v>
       </c>
       <c r="B1198" t="s">
-        <v>1584</v>
+        <v>1353</v>
       </c>
       <c r="C1198" t="s">
         <v>1582</v>
@@ -18572,7 +18540,7 @@
         <v>1388</v>
       </c>
       <c r="B1233" t="s">
-        <v>1593</v>
+        <v>1413</v>
       </c>
       <c r="C1233" t="s">
         <v>1582</v>
@@ -18583,7 +18551,7 @@
         <v>1389</v>
       </c>
       <c r="B1234" t="s">
-        <v>1593</v>
+        <v>1413</v>
       </c>
       <c r="C1234" t="s">
         <v>1582</v>
@@ -18726,7 +18694,7 @@
         <v>1402</v>
       </c>
       <c r="B1247" t="s">
-        <v>1593</v>
+        <v>1413</v>
       </c>
       <c r="C1247" t="s">
         <v>1582</v>
@@ -18847,7 +18815,7 @@
         <v>1413</v>
       </c>
       <c r="B1258" t="s">
-        <v>1592</v>
+        <v>1413</v>
       </c>
       <c r="C1258" t="s">
         <v>1582</v>
